--- a/source_code/data/wi.xlsx
+++ b/source_code/data/wi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2C2B6C-4AC9-42EE-8C2D-F5E430C18CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295BD84A-88B6-4D80-A55B-A9A686D9BA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="8">
   <si>
     <t>p_wi_eta</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>p_wi_co2_share</t>
-  </si>
-  <si>
-    <t>p_wi_c_co2</t>
   </si>
   <si>
     <t>p_wi_heat</t>
@@ -385,13 +382,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +402,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -414,13 +411,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.8</v>
       </c>
@@ -443,9 +437,6 @@
         <v>0.8</v>
       </c>
       <c r="H2">
-        <v>42.78</v>
-      </c>
-      <c r="I2">
         <v>9268394.2017499991</v>
       </c>
     </row>
@@ -456,13 +447,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45690EF8-0787-4222-A3FE-ACB6CD2B8582}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +467,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -485,13 +476,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.8</v>
       </c>
@@ -514,9 +502,6 @@
         <v>0.8</v>
       </c>
       <c r="H2">
-        <v>55.8</v>
-      </c>
-      <c r="I2">
         <v>9727873.2565000001</v>
       </c>
     </row>
@@ -527,13 +512,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E19C56-C44F-456C-9F61-25DA0654B4B1}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -556,13 +541,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.8</v>
       </c>
@@ -585,9 +567,6 @@
         <v>0.8</v>
       </c>
       <c r="H2">
-        <v>69.75</v>
-      </c>
-      <c r="I2">
         <v>8762647.6925000008</v>
       </c>
     </row>
@@ -598,13 +577,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C08366A-A187-448F-95A9-2B811BDB695F}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -627,13 +606,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.8</v>
       </c>
@@ -656,9 +632,6 @@
         <v>0.8</v>
       </c>
       <c r="H2">
-        <v>83.7</v>
-      </c>
-      <c r="I2">
         <v>8482384.5344999991</v>
       </c>
     </row>
@@ -669,13 +642,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFFC2A3-5E73-48EB-A397-B717D9502D5A}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +662,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -698,13 +671,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.8</v>
       </c>
@@ -727,9 +697,6 @@
         <v>0.8</v>
       </c>
       <c r="H2">
-        <v>102.3</v>
-      </c>
-      <c r="I2">
         <v>8202121.3765000002</v>
       </c>
     </row>
@@ -740,13 +707,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9672F23E-57C2-42EA-A960-2EB80F9B3C17}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -760,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -769,13 +736,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.8</v>
       </c>
@@ -798,9 +762,6 @@
         <v>0.8</v>
       </c>
       <c r="H2">
-        <v>120.9</v>
-      </c>
-      <c r="I2">
         <v>7921858.2185000004</v>
       </c>
     </row>

--- a/source_code/data/wi.xlsx
+++ b/source_code/data/wi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295BD84A-88B6-4D80-A55B-A9A686D9BA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC4C6A8-F5EA-4629-A8CC-F510A882C97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="2130" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -387,6 +387,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -419,10 +422,10 @@
         <v>0.8</v>
       </c>
       <c r="B2">
-        <v>30.5</v>
+        <v>35.871000000000002</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>2.6</v>
@@ -437,7 +440,7 @@
         <v>0.8</v>
       </c>
       <c r="H2">
-        <v>9268394.2017499991</v>
+        <v>10195233.4</v>
       </c>
     </row>
   </sheetData>
@@ -484,10 +487,10 @@
         <v>0.8</v>
       </c>
       <c r="B2">
-        <v>30.5</v>
+        <v>35.871000000000002</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>2.6</v>
@@ -502,7 +505,8 @@
         <v>0.8</v>
       </c>
       <c r="H2">
-        <v>9727873.2565000001</v>
+        <f>'2025'!H2*(1-0.1*0.2)</f>
+        <v>9991328.7320000008</v>
       </c>
     </row>
   </sheetData>
@@ -549,10 +553,10 @@
         <v>0.8</v>
       </c>
       <c r="B2">
-        <v>30.5</v>
+        <v>35.871000000000002</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>2.6</v>
@@ -567,7 +571,8 @@
         <v>0.8</v>
       </c>
       <c r="H2">
-        <v>8762647.6925000008</v>
+        <f>'2025'!H2*(1-0.1*0.4)</f>
+        <v>9787424.0639999993</v>
       </c>
     </row>
   </sheetData>
@@ -614,10 +619,10 @@
         <v>0.8</v>
       </c>
       <c r="B2">
-        <v>30.5</v>
+        <v>35.871000000000002</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>2.6</v>
@@ -632,7 +637,8 @@
         <v>0.8</v>
       </c>
       <c r="H2">
-        <v>8482384.5344999991</v>
+        <f>'2025'!H2*(1-0.1*0.6)</f>
+        <v>9583519.3959999997</v>
       </c>
     </row>
   </sheetData>
@@ -679,10 +685,10 @@
         <v>0.8</v>
       </c>
       <c r="B2">
-        <v>30.5</v>
+        <v>35.871000000000002</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>2.6</v>
@@ -697,7 +703,8 @@
         <v>0.8</v>
       </c>
       <c r="H2">
-        <v>8202121.3765000002</v>
+        <f>'2025'!H2*(1-0.1*0.8)</f>
+        <v>9379614.7280000001</v>
       </c>
     </row>
   </sheetData>
@@ -744,10 +751,10 @@
         <v>0.8</v>
       </c>
       <c r="B2">
-        <v>30.5</v>
+        <v>35.871000000000002</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>2.6</v>
@@ -762,7 +769,8 @@
         <v>0.8</v>
       </c>
       <c r="H2">
-        <v>7921858.2185000004</v>
+        <f>'2025'!H2*(1-0.1*1)</f>
+        <v>9175710.0600000005</v>
       </c>
     </row>
   </sheetData>
